--- a/dataset_rute_ekspedisi.xlsx
+++ b/dataset_rute_ekspedisi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K315"/>
+  <dimension ref="A1:K316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14616,6 +14616,51 @@
         </is>
       </c>
     </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Ambon</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>2378.06</v>
+      </c>
+      <c r="D316" t="n">
+        <v>4</v>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>Cerah</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>Truk</t>
+        </is>
+      </c>
+      <c r="G316" t="n">
+        <v>60</v>
+      </c>
+      <c r="H316" t="n">
+        <v>39.63</v>
+      </c>
+      <c r="I316" t="n">
+        <v>43.63</v>
+      </c>
+      <c r="J316" t="n">
+        <v>2138</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>Ya</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataset_rute_ekspedisi.xlsx
+++ b/dataset_rute_ekspedisi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K316"/>
+  <dimension ref="A1:K317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14661,6 +14661,51 @@
         </is>
       </c>
     </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>403.36</v>
+      </c>
+      <c r="D317" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>Cerah</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>Truk</t>
+        </is>
+      </c>
+      <c r="G317" t="n">
+        <v>77</v>
+      </c>
+      <c r="H317" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="I317" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="J317" t="n">
+        <v>179</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>Ya</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
